--- a/MovQual/Output/MoveQual_aff.xlsx
+++ b/MovQual/Output/MoveQual_aff.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="192">
   <si>
     <t>ppID</t>
   </si>
@@ -579,6 +579,18 @@
   </si>
   <si>
     <t>LDLJ_A</t>
+  </si>
+  <si>
+    <t>BC_058</t>
+  </si>
+  <si>
+    <t>BC_059</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>T1</t>
   </si>
 </sst>
 </file>
@@ -599,7 +611,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -609,14 +621,16 @@
     </border>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4281,33 +4295,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y44"/>
+  <dimension ref="A1:Y46"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.37890625" customWidth="true"/>
-    <col min="2" max="2" width="8.15625" customWidth="true"/>
-    <col min="3" max="3" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="7.93359375" customWidth="true"/>
+    <col min="3" max="3" width="3.15625" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="10.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="12.7109375" customWidth="true"/>
-    <col min="8" max="8" width="12.7109375" customWidth="true"/>
-    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="12.7109375" customWidth="true"/>
-    <col min="11" max="11" width="12.7109375" customWidth="true"/>
-    <col min="12" max="12" width="18.37890625" customWidth="true"/>
-    <col min="13" max="13" width="18.15625" customWidth="true"/>
-    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="13.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
     <col min="15" max="15" width="12.7109375" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
     <col min="17" max="17" width="12.7109375" customWidth="true"/>
     <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="10.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="12.7109375" customWidth="true"/>
     <col min="23" max="23" width="12.7109375" customWidth="true"/>
-    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
     <col min="25" max="25" width="12.37890625" customWidth="true"/>
   </cols>
   <sheetData>
@@ -7699,6 +7713,160 @@
         <v>-6.2044944221180929</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" s="0">
+        <v>2.0959312192542492</v>
+      </c>
+      <c r="E45" s="0">
+        <v>2.6948882495831787</v>
+      </c>
+      <c r="F45" s="0">
+        <v>2.0170820346423088</v>
+      </c>
+      <c r="G45" s="0">
+        <v>1.230290596858693</v>
+      </c>
+      <c r="H45" s="0">
+        <v>1.3407286043898341</v>
+      </c>
+      <c r="I45" s="0">
+        <v>1.8270418251484022</v>
+      </c>
+      <c r="J45" s="0">
+        <v>0.93249484074422662</v>
+      </c>
+      <c r="K45" s="0">
+        <v>1.5738801864241578</v>
+      </c>
+      <c r="L45" s="0">
+        <v>1.2974358974358975</v>
+      </c>
+      <c r="M45" s="0">
+        <v>0.089970713816937886</v>
+      </c>
+      <c r="N45" s="0">
+        <v>0.76900147103888505</v>
+      </c>
+      <c r="O45" s="0">
+        <v>0.64019721414549835</v>
+      </c>
+      <c r="P45" s="0">
+        <v>0.77661043088901216</v>
+      </c>
+      <c r="Q45" s="0">
+        <v>0.47587766946202109</v>
+      </c>
+      <c r="R45" s="0">
+        <v>4.6696031788614274</v>
+      </c>
+      <c r="S45" s="0">
+        <v>2.3143487496895134</v>
+      </c>
+      <c r="T45" s="0">
+        <v>5.9645700749959563</v>
+      </c>
+      <c r="U45" s="0">
+        <v>8.1592600869062757</v>
+      </c>
+      <c r="V45" s="0">
+        <v>0.58954419993875751</v>
+      </c>
+      <c r="W45" s="0">
+        <v>0.29218989917418364</v>
+      </c>
+      <c r="X45" s="0">
+        <v>0.75303565595471689</v>
+      </c>
+      <c r="Y45" s="0">
+        <v>-6.310537946523854</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="0">
+        <v>1.9619356488487893</v>
+      </c>
+      <c r="E46" s="0">
+        <v>2.7111962972624037</v>
+      </c>
+      <c r="F46" s="0">
+        <v>2.4322843101253584</v>
+      </c>
+      <c r="G46" s="0">
+        <v>2.8017523770637442</v>
+      </c>
+      <c r="H46" s="0">
+        <v>0.58638675780070737</v>
+      </c>
+      <c r="I46" s="0">
+        <v>0.58749390635126209</v>
+      </c>
+      <c r="J46" s="0">
+        <v>0.51679802037830602</v>
+      </c>
+      <c r="K46" s="0">
+        <v>0.81511909588192499</v>
+      </c>
+      <c r="L46" s="0">
+        <v>1.3115384615384615</v>
+      </c>
+      <c r="M46" s="0">
+        <v>0.085900625020528129</v>
+      </c>
+      <c r="N46" s="0">
+        <v>0.75906228073190063</v>
+      </c>
+      <c r="O46" s="0">
+        <v>0.64515416727644548</v>
+      </c>
+      <c r="P46" s="0">
+        <v>0.7516374513081906</v>
+      </c>
+      <c r="Q46" s="0">
+        <v>0.43660465052848252</v>
+      </c>
+      <c r="R46" s="0">
+        <v>4.7040264741458229</v>
+      </c>
+      <c r="S46" s="0">
+        <v>2.4610348867751854</v>
+      </c>
+      <c r="T46" s="0">
+        <v>5.8002678846793421</v>
+      </c>
+      <c r="U46" s="0">
+        <v>8.0693563936153865</v>
+      </c>
+      <c r="V46" s="0">
+        <v>0.59824397517729844</v>
+      </c>
+      <c r="W46" s="0">
+        <v>0.31298703393920541</v>
+      </c>
+      <c r="X46" s="0">
+        <v>0.73766066910877293</v>
+      </c>
+      <c r="Y46" s="0">
+        <v>-6.29168005863409</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>